--- a/data/trans_dic/P32A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Edad-trans_dic.xlsx
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01635307551971475</v>
+        <v>0.01649251465538919</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00434802533910228</v>
+        <v>0.004347539265914121</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="inlineStr"/>
@@ -722,22 +722,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.005482332615527353</v>
+        <v>0.005462745111667499</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02015137688168405</v>
+        <v>0.01900880899862114</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.012340331176244</v>
+        <v>0.012274218812761</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.005267504930807522</v>
+        <v>0.005751427489696976</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.008068409634708919</v>
+        <v>0.007852984406943242</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02184934262167221</v>
+        <v>0.02216058433203225</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05912830293822877</v>
+        <v>0.05711134678913643</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.044090665956164</v>
+        <v>0.03831111728788612</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.03883376208895203</v>
+        <v>0.03826219590089771</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05313175804374803</v>
+        <v>0.04822960738012409</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1808530548616765</v>
+        <v>0.1721363055639563</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.014846751300297</v>
+        <v>0.01480463296314187</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04286174522845605</v>
+        <v>0.0410930674035269</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03222814957313191</v>
+        <v>0.03371252252741386</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06937004552152662</v>
+        <v>0.07643809390420678</v>
       </c>
     </row>
     <row r="7">
@@ -836,13 +836,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003885888356549613</v>
+        <v>0.003882695064954951</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01625875556147586</v>
+        <v>0.01614361813542154</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0137453942917469</v>
+        <v>0.01375151799094747</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -860,16 +860,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002828021442263447</v>
+        <v>0.002839070289532899</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01217363218558596</v>
+        <v>0.01251712957538566</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01197163204731186</v>
+        <v>0.01084649156642093</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.002162785286392031</v>
+        <v>0.002172919331185182</v>
       </c>
     </row>
     <row r="9">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02160300060209637</v>
+        <v>0.02033556550632794</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04794656981952525</v>
+        <v>0.04703664232528038</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.050046156551712</v>
+        <v>0.0524517289113297</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02817606473692633</v>
+        <v>0.02489169763591092</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02654686950083144</v>
+        <v>0.02135366870511748</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02662958778476925</v>
+        <v>0.02113837699259775</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03027238879164024</v>
+        <v>0.0324024977490505</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04063347266428648</v>
+        <v>0.0407828778641877</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01778902132296483</v>
+        <v>0.01687281729868771</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03396320182879162</v>
+        <v>0.03428361569549356</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03599242586016674</v>
+        <v>0.03561413195746738</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02095950719087765</v>
+        <v>0.02243047870420645</v>
       </c>
     </row>
     <row r="10">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004536709622516005</v>
+        <v>0.004548959967946692</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01661812615496621</v>
+        <v>0.01717102342496104</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009296001929125747</v>
+        <v>0.00963043733821565</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003559741406414505</v>
+        <v>0.003615356317574081</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002775837469394574</v>
+        <v>0.00277745603280128</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.004677837381908833</v>
+        <v>0.004571812550650292</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01151059716624499</v>
+        <v>0.01125428431613853</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.008230128470671109</v>
+        <v>0.008406471787861327</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.004531142479459824</v>
+        <v>0.004865114017345011</v>
       </c>
     </row>
     <row r="12">
@@ -1016,40 +1016,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02919313632806583</v>
+        <v>0.02628144075791501</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05127396194050778</v>
+        <v>0.05501892284909075</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03735646025659752</v>
+        <v>0.0382346208771606</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02983305674358156</v>
+        <v>0.03439323017419931</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03314406302202948</v>
+        <v>0.0346138915183774</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01942896818916386</v>
+        <v>0.0192552199775806</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0236979300252979</v>
+        <v>0.02362180342352581</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03890616084905761</v>
+        <v>0.03398802038261876</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02038570086083713</v>
+        <v>0.02260409754942699</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03710485486129495</v>
+        <v>0.0364574436512913</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02778950623383285</v>
+        <v>0.02775385745399877</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02484252949771176</v>
+        <v>0.0260716224552334</v>
       </c>
     </row>
     <row r="13">
@@ -1073,7 +1073,7 @@
         <v>0.02116694166664895</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02370441007008068</v>
+        <v>0.02370441007008069</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0.01594617407526091</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.01863689131506923</v>
+        <v>0.01863689131506924</v>
       </c>
     </row>
     <row r="14">
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009509931721973532</v>
+        <v>0.008803613502065839</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008919899119950479</v>
+        <v>0.00887770190533232</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01110145536838552</v>
+        <v>0.01090902451215468</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
@@ -1127,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.003309532075322924</v>
+        <v>0.003289266947257904</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.007043353939392406</v>
+        <v>0.007258568119272195</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.006984896146973561</v>
+        <v>0.008341549277109518</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01111924061878375</v>
+        <v>0.009981287214113075</v>
       </c>
     </row>
     <row r="15">
@@ -1150,38 +1150,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02159303896080136</v>
+        <v>0.02009282233117287</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04873691245993442</v>
+        <v>0.04757049020314411</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04146029792837271</v>
+        <v>0.04423732157652885</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04682839298406542</v>
+        <v>0.045913546216249</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.02421879856163536</v>
+        <v>0.02424473131941914</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03060993224748228</v>
+        <v>0.03324326168088015</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02694333504352265</v>
+        <v>0.02710607993065251</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01341395095575423</v>
+        <v>0.01523625224286237</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03289994190836746</v>
+        <v>0.03530250016330073</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02872535086609656</v>
+        <v>0.02949284989851905</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03446933615335807</v>
+        <v>0.03337322079249801</v>
       </c>
     </row>
     <row r="16">
@@ -1205,7 +1205,7 @@
         <v>0.01954085884584446</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.03473217288144596</v>
+        <v>0.03473217288144594</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0.02336274353500148</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.03001757609804073</v>
+        <v>0.03001757609804074</v>
       </c>
     </row>
     <row r="17">
@@ -1240,38 +1240,38 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01004363224441768</v>
+        <v>0.009977124819988947</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007710551305906523</v>
+        <v>0.007709971575463978</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01741694058555567</v>
+        <v>0.01866445538776646</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.008997626752705766</v>
+        <v>0.009004520777167785</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.008661290676105167</v>
+        <v>0.008819241371989627</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.008155437139848598</v>
+        <v>0.008398094719730406</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.007065448904656862</v>
+        <v>0.00758120934647941</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.005875894665539321</v>
+        <v>0.005858582811788403</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01098169024407726</v>
+        <v>0.01087325442444531</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0188859990774288</v>
+        <v>0.01818697144699378</v>
       </c>
     </row>
     <row r="18">
@@ -1282,38 +1282,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06973883308440787</v>
+        <v>0.06498433504431403</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05262106102163241</v>
+        <v>0.04755520322283663</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0426665551962846</v>
+        <v>0.0434376810505376</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05672503845697876</v>
+        <v>0.05788014920267353</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.1090074071042631</v>
+        <v>0.1013375383287909</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09689466208534044</v>
+        <v>0.09833640436322375</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04808603955473756</v>
+        <v>0.04583624222627911</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0480205601386177</v>
+        <v>0.04724421240169625</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04698416872726968</v>
+        <v>0.04581432196164738</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04566026196544201</v>
+        <v>0.04463779328913169</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04727715293984435</v>
+        <v>0.04681594550505258</v>
       </c>
     </row>
     <row r="19">
@@ -1337,7 +1337,7 @@
         <v>0.01656952386139755</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.02562079647157828</v>
+        <v>0.02562079647157829</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0.01646114874840628</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.02317701426504536</v>
+        <v>0.02317701426504535</v>
       </c>
     </row>
     <row r="20">
@@ -1373,13 +1373,13 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.006039014586277041</v>
+        <v>0.006069858826019686</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.005062073944367381</v>
+        <v>0.005008082989068624</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01146872743577882</v>
+        <v>0.01152380023012614</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
@@ -1387,17 +1387,17 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.005453943188270634</v>
+        <v>0.005414610642455585</v>
       </c>
       <c r="K20" s="5" t="inlineStr"/>
       <c r="L20" s="5" t="n">
-        <v>0.004453900293295249</v>
+        <v>0.00449219258593127</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.004349129391834827</v>
+        <v>0.003980830933441011</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01212782361942322</v>
+        <v>0.01244877765159356</v>
       </c>
     </row>
     <row r="21">
@@ -1409,31 +1409,31 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.05113850181582264</v>
+        <v>0.05073680879490153</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0472207044405211</v>
+        <v>0.04595576991369817</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05006409239809486</v>
+        <v>0.04774168189439897</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.07186430486308615</v>
+        <v>0.08699580863911693</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04822795458109019</v>
+        <v>0.04762121009747498</v>
       </c>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="n">
-        <v>0.03826986113167116</v>
+        <v>0.03772181242275177</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03727484692601261</v>
+        <v>0.03953361440558583</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04080826380659199</v>
+        <v>0.04055407412995228</v>
       </c>
     </row>
     <row r="22">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.02230694350210351</v>
+        <v>0.02230694350210352</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0.009044368467569907</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.02530508582049331</v>
+        <v>0.02530508582049332</v>
       </c>
     </row>
     <row r="23">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="n">
-        <v>0.005145866095676083</v>
+        <v>0.005079336985402896</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.00961950016123274</v>
+        <v>0.01081914914513993</v>
       </c>
     </row>
     <row r="24">
@@ -1530,34 +1530,34 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07033409020098574</v>
+        <v>0.06934434032346866</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1290325133054751</v>
+        <v>0.1334813133625479</v>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.05372312672127518</v>
+        <v>0.05345249700088388</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
-        <v>0.1650663183201443</v>
+        <v>0.157367931812482</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1466620122532964</v>
+        <v>0.1293981030407621</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06028414144176982</v>
+        <v>0.06162313160710679</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.09824779832735406</v>
+        <v>0.1009874423997205</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.036698817259509</v>
+        <v>0.05705894664540764</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05373947942509195</v>
+        <v>0.05556583924201114</v>
       </c>
     </row>
     <row r="25">
@@ -1616,40 +1616,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.006553849995549054</v>
+        <v>0.006994169884733087</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01814867028367212</v>
+        <v>0.01870920448803541</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01440299018189199</v>
+        <v>0.01388254730379938</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0129575261908821</v>
+        <v>0.01310594502918397</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.001031926920405972</v>
+        <v>0.0003932406261777745</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.00378960129705333</v>
+        <v>0.0039753201607172</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.007380111584790931</v>
+        <v>0.007565173891796469</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01305299500146801</v>
+        <v>0.012725000987786</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.00534995931607798</v>
+        <v>0.005481135541557372</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01501451755682503</v>
+        <v>0.0149960137151997</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01342338800477017</v>
+        <v>0.01351940162931248</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01462620364488456</v>
+        <v>0.01460905786503916</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01605121709184693</v>
+        <v>0.01666670361010787</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03381922781528899</v>
+        <v>0.03338733225922886</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02673361592792014</v>
+        <v>0.02720169174189093</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02549346045865339</v>
+        <v>0.02524922090805205</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.009080710637896481</v>
+        <v>0.009046118031454085</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01712486952277045</v>
+        <v>0.01705469296001155</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02268570669374467</v>
+        <v>0.02225593362223846</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03483249737062398</v>
+        <v>0.03487899208158756</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01237587289231625</v>
+        <v>0.01255567199229491</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02559755530060259</v>
+        <v>0.0256594154309164</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02272798605609453</v>
+        <v>0.02328616081257612</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02507357394948062</v>
+        <v>0.02553641941051289</v>
       </c>
     </row>
     <row r="28">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4572</v>
+        <v>4611</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>1109</v>
@@ -1981,22 +1981,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2237</v>
+        <v>2110</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5715</v>
+        <v>5684</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2253</v>
+        <v>2460</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2237</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="7">
@@ -2007,36 +2007,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6133</v>
+        <v>6221</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16531</v>
+        <v>15968</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11251</v>
+        <v>9776</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>7127</v>
+        <v>7022</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9165</v>
+        <v>8319</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20074</v>
+        <v>19106</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6935</v>
+        <v>6916</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>19850</v>
+        <v>19030</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>13783</v>
+        <v>14418</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>19232</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="8">
@@ -2139,13 +2139,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7606</v>
+        <v>7552</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5024</v>
+        <v>5027</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -2163,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2031</v>
+        <v>2039</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8268</v>
+        <v>8501</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>7065</v>
+        <v>6401</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="11">
@@ -2183,40 +2183,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10842</v>
+        <v>10206</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22429</v>
+        <v>22004</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18293</v>
+        <v>19173</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7029</v>
+        <v>6210</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5741</v>
+        <v>4618</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5628</v>
+        <v>4468</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6800</v>
+        <v>7279</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6156</v>
+        <v>6179</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12775</v>
+        <v>12117</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>23066</v>
+        <v>23284</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>21242</v>
+        <v>21018</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>8404</v>
+        <v>8994</v>
       </c>
     </row>
     <row r="12">
@@ -2319,16 +2319,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7083</v>
+        <v>7318</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4018</v>
+        <v>4163</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1109</v>
+        <v>1127</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2343,16 +2343,16 @@
         <v>470</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2929</v>
+        <v>2862</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7707</v>
+        <v>7535</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5610</v>
+        <v>5730</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2179</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="15">
@@ -2363,40 +2363,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11730</v>
+        <v>10560</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21853</v>
+        <v>23449</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16147</v>
+        <v>16527</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9297</v>
+        <v>10718</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7433</v>
+        <v>7763</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4727</v>
+        <v>4685</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5911</v>
+        <v>5892</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6581</v>
+        <v>5749</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>12763</v>
+        <v>14152</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>24842</v>
+        <v>24409</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>18943</v>
+        <v>18919</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>11944</v>
+        <v>12535</v>
       </c>
     </row>
     <row r="16">
@@ -2502,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3718</v>
+        <v>3442</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3468</v>
+        <v>3451</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3883</v>
+        <v>3816</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4255</v>
+        <v>4385</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4575</v>
+        <v>5464</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>6206</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="19">
@@ -2541,38 +2541,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6769</v>
+        <v>6299</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19056</v>
+        <v>18600</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16118</v>
+        <v>17198</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>16379</v>
+        <v>16059</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>5163</v>
+        <v>5168</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8150</v>
+        <v>8851</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5615</v>
+        <v>5649</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>6153</v>
+        <v>6989</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>19877</v>
+        <v>21329</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>18816</v>
+        <v>19318</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>19239</v>
+        <v>18628</v>
       </c>
     </row>
     <row r="20">
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1809</v>
+        <v>1797</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
@@ -2684,29 +2684,29 @@
         <v>2211</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4866</v>
+        <v>5214</v>
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1122</v>
+        <v>1142</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1207</v>
+        <v>1243</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1805</v>
+        <v>1937</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4571</v>
+        <v>4526</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>8070</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="23">
@@ -2717,38 +2717,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12559</v>
+        <v>11703</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12197</v>
+        <v>11023</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12234</v>
+        <v>12455</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>15847</v>
+        <v>16169</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>12230</v>
+        <v>11369</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>12551</v>
+        <v>12737</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>7115</v>
+        <v>6782</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>12271</v>
+        <v>12072</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>16162</v>
+        <v>15759</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>19007</v>
+        <v>18581</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>20202</v>
+        <v>20005</v>
       </c>
     </row>
     <row r="24">
@@ -2852,13 +2852,13 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2375</v>
+        <v>2386</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
@@ -2866,17 +2866,17 @@
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K26" s="6" t="inlineStr"/>
       <c r="L26" s="6" t="n">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1061</v>
+        <v>971</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>3468</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="27">
@@ -2888,31 +2888,31 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>7849</v>
+        <v>7787</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8381</v>
+        <v>8156</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10368</v>
+        <v>9887</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>4771</v>
+        <v>5776</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3805</v>
+        <v>3757</v>
       </c>
       <c r="K27" s="6" t="inlineStr"/>
       <c r="L27" s="6" t="n">
-        <v>8036</v>
+        <v>7921</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>9090</v>
+        <v>9641</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>11671</v>
+        <v>11598</v>
       </c>
     </row>
     <row r="28">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E30" s="6" t="inlineStr"/>
       <c r="F30" s="6" t="n">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="inlineStr"/>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1352</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="31">
@@ -3053,34 +3053,34 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5144</v>
+        <v>5071</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11036</v>
+        <v>11417</v>
       </c>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>5896</v>
+        <v>5866</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="n">
-        <v>6037</v>
+        <v>5756</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>4517</v>
+        <v>3985</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5405</v>
+        <v>5525</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>10797</v>
+        <v>11099</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>4844</v>
+        <v>7532</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>7552</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="32">
@@ -3183,40 +3183,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>12327</v>
+        <v>13155</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>36939</v>
+        <v>38080</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>28826</v>
+        <v>27784</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>21682</v>
+        <v>21930</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>922</v>
+        <v>351</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3958</v>
+        <v>4152</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>8453</v>
+        <v>8664</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>11718</v>
+        <v>11423</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>14843</v>
+        <v>15207</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>46242</v>
+        <v>46185</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>42239</v>
+        <v>42541</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>37604</v>
+        <v>37560</v>
       </c>
     </row>
     <row r="35">
@@ -3227,40 +3227,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>30191</v>
+        <v>31348</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>68835</v>
+        <v>67956</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>53504</v>
+        <v>54440</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>42658</v>
+        <v>42250</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>8114</v>
+        <v>8083</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>17886</v>
+        <v>17813</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>25982</v>
+        <v>25490</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>31269</v>
+        <v>31311</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>34336</v>
+        <v>34834</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>78836</v>
+        <v>79027</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>71518</v>
+        <v>73274</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>64464</v>
+        <v>65654</v>
       </c>
     </row>
     <row r="36">
